--- a/cmc/CMC Tasks v3.0.xlsx
+++ b/cmc/CMC Tasks v3.0.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6E1466-12D5-4A7E-84D6-F511E1383FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoundraPandian\work\Optum\fx\cmc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE84FF13-D008-4827-92C9-7E957EACED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones &amp; Storypoints" sheetId="2" r:id="rId1"/>
@@ -63,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="242">
   <si>
     <t>Planning</t>
   </si>
@@ -783,10 +788,6 @@
     <t>Build &amp; Deploy</t>
   </si>
   <si>
-    <t>• All 5 apps will be ready.
-• Test environment ready.</t>
-  </si>
-  <si>
     <t>Staging</t>
   </si>
   <si>
@@ -821,6 +822,13 @@
   </si>
   <si>
     <t>Target Architecture</t>
+  </si>
+  <si>
+    <t>Develop Network &amp; Security Design - Stage Environment</t>
+  </si>
+  <si>
+    <t>• All 6 apps will be ready.
+• Dev and Test environments ready.</t>
   </si>
 </sst>
 </file>
@@ -854,28 +862,28 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Display"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,7 +906,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -906,14 +914,14 @@
       <b/>
       <sz val="9"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -921,7 +929,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -933,14 +941,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -981,7 +989,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1036,7 +1044,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1055,7 +1063,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,7 +1667,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2012,6 +2026,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2637,7 +2658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFB1BB9-1134-44DB-875D-F520F3087C25}">
   <dimension ref="B2:XFD36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -2666,7 +2689,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="127">
         <v>45838</v>
       </c>
     </row>
@@ -2696,7 +2719,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="409.6" hidden="1">
+    <row r="8" spans="2:16" ht="409.5" hidden="1">
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
@@ -3211,9 +3234,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD80289-1898-4D84-8531-5FE946D3CE3C}">
-  <dimension ref="A1:BW155"/>
+  <dimension ref="A1:BW156"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
@@ -3898,7 +3923,7 @@
       <c r="G7" s="54"/>
       <c r="I7" s="34"/>
       <c r="L7" s="34" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="M7" s="55"/>
@@ -4238,7 +4263,7 @@
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61">
-        <f t="shared" ref="L11:L25" ca="1" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="L11:L26" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>14</v>
       </c>
       <c r="M11" s="55"/>
@@ -5152,8 +5177,8 @@
       <c r="E22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="57" t="s">
-        <v>84</v>
+      <c r="F22" s="129" t="s">
+        <v>240</v>
       </c>
       <c r="G22" s="62"/>
       <c r="H22" s="59"/>
@@ -5237,7 +5262,7 @@
         <v>78</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="62"/>
       <c r="H23" s="59"/>
@@ -5307,9 +5332,7 @@
       <c r="BP23" s="55"/>
     </row>
     <row r="24" spans="1:68" ht="15" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="A24" s="28"/>
       <c r="B24" s="56" t="s">
         <v>68</v>
       </c>
@@ -5320,10 +5343,10 @@
         <v>66</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" s="62"/>
       <c r="H24" s="59"/>
@@ -5334,10 +5357,7 @@
         <v>45748</v>
       </c>
       <c r="K24" s="61"/>
-      <c r="L24" s="61">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
+      <c r="L24" s="61"/>
       <c r="M24" s="55"/>
       <c r="N24" s="55"/>
       <c r="O24" s="55"/>
@@ -5396,6 +5416,9 @@
       <c r="BP24" s="55"/>
     </row>
     <row r="25" spans="1:68" ht="15" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="B25" s="56" t="s">
         <v>68</v>
       </c>
@@ -5409,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="62"/>
       <c r="H25" s="59"/>
@@ -5421,7 +5444,7 @@
       </c>
       <c r="K25" s="61"/>
       <c r="L25" s="61">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="M25" s="55"/>
@@ -5492,10 +5515,10 @@
         <v>66</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="62"/>
       <c r="H26" s="59"/>
@@ -5506,7 +5529,10 @@
         <v>45748</v>
       </c>
       <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
+      <c r="L26" s="61">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
       <c r="O26" s="55"/>
@@ -5578,7 +5604,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="62"/>
       <c r="H27" s="59"/>
@@ -5649,7 +5675,7 @@
     </row>
     <row r="28" spans="1:68" ht="15" customHeight="1">
       <c r="B28" s="56" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>65</v>
@@ -5661,7 +5687,7 @@
         <v>78</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="62"/>
       <c r="H28" s="59"/>
@@ -5731,15 +5757,29 @@
       <c r="BP28" s="55"/>
     </row>
     <row r="29" spans="1:68" ht="15" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
+      <c r="B29" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" s="62"/>
       <c r="H29" s="59"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
+      <c r="I29" s="60">
+        <v>45735</v>
+      </c>
+      <c r="J29" s="60">
+        <v>45748</v>
+      </c>
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
       <c r="M29" s="55"/>
@@ -5800,29 +5840,15 @@
       <c r="BP29" s="55"/>
     </row>
     <row r="30" spans="1:68" ht="15" customHeight="1">
-      <c r="B30" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>93</v>
-      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="62"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="63">
-        <v>45749</v>
-      </c>
-      <c r="J30" s="63">
-        <v>45762</v>
-      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
       <c r="M30" s="55"/>
@@ -5884,7 +5910,7 @@
     </row>
     <row r="31" spans="1:68" ht="15" customHeight="1">
       <c r="B31" s="56" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>65</v>
@@ -5893,10 +5919,10 @@
         <v>92</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G31" s="62"/>
       <c r="H31" s="59"/>
@@ -5979,7 +6005,7 @@
         <v>95</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="62"/>
       <c r="H32" s="59"/>
@@ -6062,7 +6088,7 @@
         <v>95</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="62"/>
       <c r="H33" s="59"/>
@@ -6144,8 +6170,8 @@
       <c r="E34" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="64" t="s">
-        <v>99</v>
+      <c r="F34" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="G34" s="62"/>
       <c r="H34" s="59"/>
@@ -6224,11 +6250,11 @@
       <c r="D35" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="66" t="s">
-        <v>100</v>
+      <c r="F35" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="G35" s="62"/>
       <c r="H35" s="59"/>
@@ -6299,7 +6325,7 @@
     </row>
     <row r="36" spans="2:68" ht="15" customHeight="1">
       <c r="B36" s="56" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C36" s="56" t="s">
         <v>65</v>
@@ -6307,11 +6333,11 @@
       <c r="D36" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="67" t="s">
-        <v>101</v>
+      <c r="F36" s="66" t="s">
+        <v>100</v>
       </c>
       <c r="G36" s="62"/>
       <c r="H36" s="59"/>
@@ -6382,7 +6408,7 @@
     </row>
     <row r="37" spans="2:68" ht="15" customHeight="1">
       <c r="B37" s="56" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C37" s="56" t="s">
         <v>65</v>
@@ -6394,7 +6420,7 @@
         <v>95</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G37" s="62"/>
       <c r="H37" s="59"/>
@@ -6465,7 +6491,7 @@
     </row>
     <row r="38" spans="2:68" ht="15" customHeight="1">
       <c r="B38" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C38" s="56" t="s">
         <v>65</v>
@@ -6474,10 +6500,10 @@
         <v>92</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="62"/>
       <c r="H38" s="59"/>
@@ -6557,10 +6583,10 @@
         <v>92</v>
       </c>
       <c r="E39" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="G39" s="62"/>
       <c r="H39" s="59"/>
@@ -6630,15 +6656,29 @@
       <c r="BP39" s="55"/>
     </row>
     <row r="40" spans="2:68" ht="15" customHeight="1">
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
+      <c r="B40" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>105</v>
+      </c>
       <c r="G40" s="62"/>
       <c r="H40" s="59"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="I40" s="63">
+        <v>45749</v>
+      </c>
+      <c r="J40" s="63">
+        <v>45762</v>
+      </c>
       <c r="K40" s="61"/>
       <c r="L40" s="61"/>
       <c r="M40" s="55"/>
@@ -6699,29 +6739,15 @@
       <c r="BP40" s="55"/>
     </row>
     <row r="41" spans="2:68" ht="15" customHeight="1">
-      <c r="B41" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>108</v>
-      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="62"/>
       <c r="H41" s="59"/>
-      <c r="I41" s="63">
-        <v>45763</v>
-      </c>
-      <c r="J41" s="63">
-        <v>45776</v>
-      </c>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
       <c r="K41" s="61"/>
       <c r="L41" s="61"/>
       <c r="M41" s="55"/>
@@ -6783,7 +6809,7 @@
     </row>
     <row r="42" spans="2:68" ht="15" customHeight="1">
       <c r="B42" s="56" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C42" s="56" t="s">
         <v>106</v>
@@ -6792,10 +6818,10 @@
         <v>107</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G42" s="62"/>
       <c r="H42" s="59"/>
@@ -6878,7 +6904,7 @@
         <v>110</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="62"/>
       <c r="H43" s="59"/>
@@ -6958,10 +6984,10 @@
         <v>107</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G44" s="62"/>
       <c r="H44" s="59"/>
@@ -7044,7 +7070,7 @@
         <v>113</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G45" s="62"/>
       <c r="H45" s="59"/>
@@ -7124,10 +7150,10 @@
         <v>107</v>
       </c>
       <c r="E46" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G46" s="62"/>
       <c r="H46" s="59"/>
@@ -7210,7 +7236,7 @@
         <v>114</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47" s="62"/>
       <c r="H47" s="59"/>
@@ -7281,7 +7307,7 @@
     </row>
     <row r="48" spans="2:68" ht="15" customHeight="1">
       <c r="B48" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C48" s="56" t="s">
         <v>106</v>
@@ -7290,10 +7316,10 @@
         <v>107</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="67" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="G48" s="62"/>
       <c r="H48" s="59"/>
@@ -7364,7 +7390,7 @@
     </row>
     <row r="49" spans="2:68" ht="15" customHeight="1">
       <c r="B49" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C49" s="56" t="s">
         <v>106</v>
@@ -7373,10 +7399,10 @@
         <v>107</v>
       </c>
       <c r="E49" s="56" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="62"/>
       <c r="H49" s="59"/>
@@ -7446,15 +7472,29 @@
       <c r="BP49" s="55"/>
     </row>
     <row r="50" spans="2:68" ht="15" customHeight="1">
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
+      <c r="B50" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>116</v>
+      </c>
       <c r="G50" s="62"/>
       <c r="H50" s="59"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
+      <c r="I50" s="63">
+        <v>45763</v>
+      </c>
+      <c r="J50" s="63">
+        <v>45776</v>
+      </c>
       <c r="K50" s="61"/>
       <c r="L50" s="61"/>
       <c r="M50" s="55"/>
@@ -7515,29 +7555,15 @@
       <c r="BP50" s="55"/>
     </row>
     <row r="51" spans="2:68" ht="15" customHeight="1">
-      <c r="B51" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>118</v>
-      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="62"/>
       <c r="H51" s="59"/>
-      <c r="I51" s="63">
-        <v>45777</v>
-      </c>
-      <c r="J51" s="63">
-        <v>45790</v>
-      </c>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
       <c r="K51" s="61"/>
       <c r="L51" s="61"/>
       <c r="M51" s="55"/>
@@ -7599,7 +7625,7 @@
     </row>
     <row r="52" spans="2:68" ht="15" customHeight="1">
       <c r="B52" s="56" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C52" s="56" t="s">
         <v>106</v>
@@ -7608,10 +7634,10 @@
         <v>117</v>
       </c>
       <c r="E52" s="56" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="59"/>
@@ -7694,7 +7720,7 @@
         <v>119</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="59"/>
@@ -7774,10 +7800,10 @@
         <v>117</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G54" s="62"/>
       <c r="H54" s="59"/>
@@ -7860,7 +7886,7 @@
         <v>121</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="59"/>
@@ -7940,10 +7966,10 @@
         <v>117</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G56" s="62"/>
       <c r="H56" s="59"/>
@@ -8026,7 +8052,7 @@
         <v>122</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="59"/>
@@ -8106,10 +8132,10 @@
         <v>117</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G58" s="62"/>
       <c r="H58" s="59"/>
@@ -8180,7 +8206,7 @@
     </row>
     <row r="59" spans="2:68" ht="15" customHeight="1">
       <c r="B59" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C59" s="56" t="s">
         <v>106</v>
@@ -8191,8 +8217,8 @@
       <c r="E59" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="67" t="s">
-        <v>124</v>
+      <c r="F59" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="G59" s="62"/>
       <c r="H59" s="59"/>
@@ -8263,7 +8289,7 @@
     </row>
     <row r="60" spans="2:68" ht="15" customHeight="1">
       <c r="B60" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C60" s="56" t="s">
         <v>106</v>
@@ -8272,10 +8298,10 @@
         <v>117</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F60" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G60" s="62"/>
       <c r="H60" s="59"/>
@@ -8345,15 +8371,29 @@
       <c r="BP60" s="55"/>
     </row>
     <row r="61" spans="2:68" ht="15" customHeight="1">
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="57"/>
+      <c r="B61" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>125</v>
+      </c>
       <c r="G61" s="62"/>
       <c r="H61" s="59"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
+      <c r="I61" s="63">
+        <v>45777</v>
+      </c>
+      <c r="J61" s="63">
+        <v>45790</v>
+      </c>
       <c r="K61" s="61"/>
       <c r="L61" s="61"/>
       <c r="M61" s="55"/>
@@ -8414,29 +8454,15 @@
       <c r="BP61" s="55"/>
     </row>
     <row r="62" spans="2:68" ht="15" customHeight="1">
-      <c r="B62" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>128</v>
-      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="62"/>
       <c r="H62" s="59"/>
-      <c r="I62" s="63">
-        <v>45791</v>
-      </c>
-      <c r="J62" s="63">
-        <v>45804</v>
-      </c>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
       <c r="K62" s="61"/>
       <c r="L62" s="61"/>
       <c r="M62" s="55"/>
@@ -8498,7 +8524,7 @@
     </row>
     <row r="63" spans="2:68" ht="15" customHeight="1">
       <c r="B63" s="56" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C63" s="56" t="s">
         <v>126</v>
@@ -8507,10 +8533,10 @@
         <v>127</v>
       </c>
       <c r="E63" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G63" s="62"/>
       <c r="H63" s="59"/>
@@ -8581,7 +8607,7 @@
     </row>
     <row r="64" spans="2:68" ht="15" customHeight="1">
       <c r="B64" s="56" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C64" s="56" t="s">
         <v>126</v>
@@ -8590,10 +8616,10 @@
         <v>127</v>
       </c>
       <c r="E64" s="56" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="62"/>
       <c r="H64" s="59"/>
@@ -8673,7 +8699,7 @@
         <v>127</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F65" s="57" t="s">
         <v>130</v>
@@ -8756,7 +8782,7 @@
         <v>127</v>
       </c>
       <c r="E66" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" s="57" t="s">
         <v>130</v>
@@ -8839,7 +8865,7 @@
         <v>127</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F67" s="57" t="s">
         <v>130</v>
@@ -8922,7 +8948,7 @@
         <v>127</v>
       </c>
       <c r="E68" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F68" s="57" t="s">
         <v>130</v>
@@ -9005,7 +9031,7 @@
         <v>127</v>
       </c>
       <c r="E69" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F69" s="57" t="s">
         <v>130</v>
@@ -9088,10 +9114,10 @@
         <v>127</v>
       </c>
       <c r="E70" s="56" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="59"/>
@@ -9162,7 +9188,7 @@
     </row>
     <row r="71" spans="2:68" ht="15" customHeight="1">
       <c r="B71" s="56" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C71" s="56" t="s">
         <v>126</v>
@@ -9171,10 +9197,10 @@
         <v>127</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="67" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="F71" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="G71" s="62"/>
       <c r="H71" s="59"/>
@@ -9244,15 +9270,29 @@
       <c r="BP71" s="55"/>
     </row>
     <row r="72" spans="2:68" ht="15" customHeight="1">
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
+      <c r="B72" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>132</v>
+      </c>
       <c r="G72" s="62"/>
       <c r="H72" s="59"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="63"/>
+      <c r="I72" s="63">
+        <v>45791</v>
+      </c>
+      <c r="J72" s="63">
+        <v>45804</v>
+      </c>
       <c r="K72" s="61"/>
       <c r="L72" s="61"/>
       <c r="M72" s="55"/>
@@ -9313,21 +9353,11 @@
       <c r="BP72" s="55"/>
     </row>
     <row r="73" spans="2:68" ht="15" customHeight="1">
-      <c r="B73" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="57" t="s">
-        <v>135</v>
-      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="62"/>
       <c r="H73" s="59"/>
       <c r="I73" s="63"/>
@@ -9393,7 +9423,7 @@
     </row>
     <row r="74" spans="2:68" ht="15" customHeight="1">
       <c r="B74" s="56" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C74" s="56" t="s">
         <v>133</v>
@@ -9402,10 +9432,10 @@
         <v>134</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G74" s="62"/>
       <c r="H74" s="59"/>
@@ -9472,7 +9502,7 @@
     </row>
     <row r="75" spans="2:68" ht="15" customHeight="1">
       <c r="B75" s="56" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C75" s="56" t="s">
         <v>133</v>
@@ -9481,10 +9511,10 @@
         <v>134</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F75" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" s="62"/>
       <c r="H75" s="59"/>
@@ -9560,7 +9590,7 @@
         <v>134</v>
       </c>
       <c r="E76" s="56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F76" s="57" t="s">
         <v>137</v>
@@ -9630,7 +9660,7 @@
     </row>
     <row r="77" spans="2:68" ht="15" customHeight="1">
       <c r="B77" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C77" s="56" t="s">
         <v>133</v>
@@ -9639,10 +9669,10 @@
         <v>134</v>
       </c>
       <c r="E77" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F77" s="67" t="s">
-        <v>138</v>
+        <v>114</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="G77" s="62"/>
       <c r="H77" s="59"/>
@@ -9709,7 +9739,7 @@
     </row>
     <row r="78" spans="2:68" ht="15" customHeight="1">
       <c r="B78" s="56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C78" s="56" t="s">
         <v>133</v>
@@ -9718,10 +9748,10 @@
         <v>134</v>
       </c>
       <c r="E78" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F78" s="57" t="s">
-        <v>137</v>
+        <v>95</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>138</v>
       </c>
       <c r="G78" s="62"/>
       <c r="H78" s="59"/>
@@ -9797,7 +9827,7 @@
         <v>134</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F79" s="57" t="s">
         <v>137</v>
@@ -9876,7 +9906,7 @@
         <v>134</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F80" s="57" t="s">
         <v>137</v>
@@ -9955,10 +9985,10 @@
         <v>134</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F81" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G81" s="62"/>
       <c r="H81" s="59"/>
@@ -10025,7 +10055,7 @@
     </row>
     <row r="82" spans="2:68" ht="15" customHeight="1">
       <c r="B82" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C82" s="56" t="s">
         <v>133</v>
@@ -10034,10 +10064,10 @@
         <v>134</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" s="67" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="F82" s="57" t="s">
+        <v>139</v>
       </c>
       <c r="G82" s="62"/>
       <c r="H82" s="59"/>
@@ -10104,7 +10134,7 @@
     </row>
     <row r="83" spans="2:68" ht="15" customHeight="1">
       <c r="B83" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C83" s="56" t="s">
         <v>133</v>
@@ -10113,10 +10143,10 @@
         <v>134</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F83" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G83" s="62"/>
       <c r="H83" s="59"/>
@@ -10182,11 +10212,21 @@
       <c r="BP83" s="55"/>
     </row>
     <row r="84" spans="2:68" ht="15" customHeight="1">
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+      <c r="B84" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>141</v>
+      </c>
       <c r="G84" s="62"/>
       <c r="H84" s="59"/>
       <c r="I84" s="63"/>
@@ -10251,21 +10291,11 @@
       <c r="BP84" s="55"/>
     </row>
     <row r="85" spans="2:68" ht="15" customHeight="1">
-      <c r="B85" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="57" t="s">
-        <v>144</v>
-      </c>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="62"/>
       <c r="H85" s="59"/>
       <c r="I85" s="63"/>
@@ -10331,7 +10361,7 @@
     </row>
     <row r="86" spans="2:68" ht="15" customHeight="1">
       <c r="B86" s="56" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C86" s="56" t="s">
         <v>142</v>
@@ -10340,10 +10370,10 @@
         <v>143</v>
       </c>
       <c r="E86" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F86" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" s="62"/>
       <c r="H86" s="59"/>
@@ -10422,7 +10452,7 @@
         <v>95</v>
       </c>
       <c r="F87" s="57" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="G87" s="62"/>
       <c r="H87" s="59"/>
@@ -10501,7 +10531,7 @@
         <v>95</v>
       </c>
       <c r="F88" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G88" s="62"/>
       <c r="H88" s="59"/>
@@ -10580,7 +10610,7 @@
         <v>95</v>
       </c>
       <c r="F89" s="57" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="G89" s="62"/>
       <c r="H89" s="59"/>
@@ -10655,11 +10685,11 @@
       <c r="D90" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E90" s="65" t="s">
+      <c r="E90" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="68" t="s">
-        <v>100</v>
+      <c r="F90" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="G90" s="62"/>
       <c r="H90" s="59"/>
@@ -10734,11 +10764,11 @@
       <c r="D91" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="67" t="s">
-        <v>147</v>
+      <c r="F91" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="G91" s="62"/>
       <c r="H91" s="59"/>
@@ -10805,7 +10835,7 @@
     </row>
     <row r="92" spans="2:68" ht="15" customHeight="1">
       <c r="B92" s="56" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C92" s="56" t="s">
         <v>142</v>
@@ -10816,8 +10846,8 @@
       <c r="E92" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="57" t="s">
-        <v>148</v>
+      <c r="F92" s="67" t="s">
+        <v>147</v>
       </c>
       <c r="G92" s="62"/>
       <c r="H92" s="59"/>
@@ -10896,7 +10926,7 @@
         <v>95</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G93" s="62"/>
       <c r="H93" s="59"/>
@@ -10963,7 +10993,7 @@
     </row>
     <row r="94" spans="2:68" ht="15" customHeight="1">
       <c r="B94" s="56" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C94" s="56" t="s">
         <v>142</v>
@@ -10975,9 +11005,9 @@
         <v>95</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" s="58"/>
+        <v>149</v>
+      </c>
+      <c r="G94" s="62"/>
       <c r="H94" s="59"/>
       <c r="I94" s="63"/>
       <c r="J94" s="63"/>
@@ -11042,7 +11072,7 @@
     </row>
     <row r="95" spans="2:68" ht="15" customHeight="1">
       <c r="B95" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C95" s="56" t="s">
         <v>142</v>
@@ -11051,12 +11081,12 @@
         <v>143</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="G95" s="62"/>
+        <v>95</v>
+      </c>
+      <c r="F95" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="58"/>
       <c r="H95" s="59"/>
       <c r="I95" s="63"/>
       <c r="J95" s="63"/>
@@ -11120,11 +11150,21 @@
       <c r="BP95" s="55"/>
     </row>
     <row r="96" spans="2:68" ht="15" customHeight="1">
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
+      <c r="B96" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>151</v>
+      </c>
       <c r="G96" s="62"/>
       <c r="H96" s="59"/>
       <c r="I96" s="63"/>
@@ -11189,21 +11229,11 @@
       <c r="BP96" s="55"/>
     </row>
     <row r="97" spans="2:68" ht="15" customHeight="1">
-      <c r="B97" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="E97" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="57" t="s">
-        <v>154</v>
-      </c>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="62"/>
       <c r="H97" s="59"/>
       <c r="I97" s="63"/>
@@ -11269,7 +11299,7 @@
     </row>
     <row r="98" spans="2:68" ht="15" customHeight="1">
       <c r="B98" s="56" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C98" s="56" t="s">
         <v>152</v>
@@ -11278,10 +11308,10 @@
         <v>153</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F98" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G98" s="62"/>
       <c r="H98" s="59"/>
@@ -11357,7 +11387,7 @@
         <v>153</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F99" s="57" t="s">
         <v>155</v>
@@ -11436,7 +11466,7 @@
         <v>153</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F100" s="57" t="s">
         <v>155</v>
@@ -11515,7 +11545,7 @@
         <v>153</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F101" s="57" t="s">
         <v>155</v>
@@ -11594,7 +11624,7 @@
         <v>153</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F102" s="57" t="s">
         <v>155</v>
@@ -11673,7 +11703,7 @@
         <v>153</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" s="57" t="s">
         <v>155</v>
@@ -11752,10 +11782,10 @@
         <v>153</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F104" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G104" s="62"/>
       <c r="H104" s="59"/>
@@ -11822,7 +11852,7 @@
     </row>
     <row r="105" spans="2:68" ht="15" customHeight="1">
       <c r="B105" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C105" s="56" t="s">
         <v>152</v>
@@ -11834,7 +11864,7 @@
         <v>95</v>
       </c>
       <c r="F105" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G105" s="62"/>
       <c r="H105" s="59"/>
@@ -11901,7 +11931,7 @@
     </row>
     <row r="106" spans="2:68" ht="15" customHeight="1">
       <c r="B106" s="56" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C106" s="56" t="s">
         <v>152</v>
@@ -11912,8 +11942,8 @@
       <c r="E106" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F106" s="69" t="s">
-        <v>159</v>
+      <c r="F106" s="57" t="s">
+        <v>157</v>
       </c>
       <c r="G106" s="62"/>
       <c r="H106" s="59"/>
@@ -11980,7 +12010,7 @@
     </row>
     <row r="107" spans="2:68" ht="15" customHeight="1">
       <c r="B107" s="56" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C107" s="56" t="s">
         <v>152</v>
@@ -11989,10 +12019,10 @@
         <v>153</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="67" t="s">
-        <v>160</v>
+        <v>95</v>
+      </c>
+      <c r="F107" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="G107" s="62"/>
       <c r="H107" s="59"/>
@@ -12058,11 +12088,21 @@
       <c r="BP107" s="55"/>
     </row>
     <row r="108" spans="2:68" ht="15" customHeight="1">
-      <c r="B108" s="56"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="57"/>
+      <c r="B108" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="67" t="s">
+        <v>160</v>
+      </c>
       <c r="G108" s="62"/>
       <c r="H108" s="59"/>
       <c r="I108" s="63"/>
@@ -12127,21 +12167,11 @@
       <c r="BP108" s="55"/>
     </row>
     <row r="109" spans="2:68" ht="15" customHeight="1">
-      <c r="B109" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="57" t="s">
-        <v>163</v>
-      </c>
+      <c r="B109" s="56"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="57"/>
       <c r="G109" s="62"/>
       <c r="H109" s="59"/>
       <c r="I109" s="63"/>
@@ -12207,19 +12237,19 @@
     </row>
     <row r="110" spans="2:68" ht="15" customHeight="1">
       <c r="B110" s="56" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C110" s="56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D110" s="56" t="s">
         <v>162</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F110" s="57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G110" s="62"/>
       <c r="H110" s="59"/>
@@ -12295,7 +12325,7 @@
         <v>162</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F111" s="57" t="s">
         <v>165</v>
@@ -12374,7 +12404,7 @@
         <v>162</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F112" s="57" t="s">
         <v>165</v>
@@ -12453,7 +12483,7 @@
         <v>162</v>
       </c>
       <c r="E113" s="56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F113" s="57" t="s">
         <v>165</v>
@@ -12532,7 +12562,7 @@
         <v>162</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F114" s="57" t="s">
         <v>165</v>
@@ -12611,7 +12641,7 @@
         <v>162</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F115" s="57" t="s">
         <v>165</v>
@@ -12681,7 +12711,7 @@
     </row>
     <row r="116" spans="2:68" ht="15" customHeight="1">
       <c r="B116" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C116" s="56" t="s">
         <v>164</v>
@@ -12690,10 +12720,10 @@
         <v>162</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F116" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G116" s="62"/>
       <c r="H116" s="59"/>
@@ -12760,19 +12790,19 @@
     </row>
     <row r="117" spans="2:68" ht="15" customHeight="1">
       <c r="B117" s="56" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C117" s="56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D117" s="56" t="s">
         <v>162</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F117" s="57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G117" s="62"/>
       <c r="H117" s="59"/>
@@ -12848,7 +12878,7 @@
         <v>162</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F118" s="57" t="s">
         <v>168</v>
@@ -12927,7 +12957,7 @@
         <v>162</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F119" s="57" t="s">
         <v>168</v>
@@ -13006,7 +13036,7 @@
         <v>162</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F120" s="57" t="s">
         <v>168</v>
@@ -13085,7 +13115,7 @@
         <v>162</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F121" s="57" t="s">
         <v>168</v>
@@ -13164,7 +13194,7 @@
         <v>162</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F122" s="57" t="s">
         <v>168</v>
@@ -13243,10 +13273,10 @@
         <v>162</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F123" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G123" s="62"/>
       <c r="H123" s="59"/>
@@ -13325,7 +13355,7 @@
         <v>95</v>
       </c>
       <c r="F124" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G124" s="62"/>
       <c r="H124" s="59"/>
@@ -13392,7 +13422,7 @@
     </row>
     <row r="125" spans="2:68" ht="15" customHeight="1">
       <c r="B125" s="56" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C125" s="56" t="s">
         <v>167</v>
@@ -13404,7 +13434,7 @@
         <v>95</v>
       </c>
       <c r="F125" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G125" s="62"/>
       <c r="H125" s="59"/>
@@ -13471,7 +13501,7 @@
     </row>
     <row r="126" spans="2:68" ht="15" customHeight="1">
       <c r="B126" s="56" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>167</v>
@@ -13480,10 +13510,10 @@
         <v>162</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="67" t="s">
-        <v>172</v>
+        <v>95</v>
+      </c>
+      <c r="F126" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="G126" s="62"/>
       <c r="H126" s="59"/>
@@ -13549,11 +13579,21 @@
       <c r="BP126" s="55"/>
     </row>
     <row r="127" spans="2:68" ht="15" customHeight="1">
-      <c r="B127" s="56"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="57"/>
+      <c r="B127" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="67" t="s">
+        <v>172</v>
+      </c>
       <c r="G127" s="62"/>
       <c r="H127" s="59"/>
       <c r="I127" s="63"/>
@@ -13618,21 +13658,11 @@
       <c r="BP127" s="55"/>
     </row>
     <row r="128" spans="2:68" ht="15" customHeight="1">
-      <c r="B128" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D128" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E128" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F128" s="57" t="s">
-        <v>175</v>
-      </c>
+      <c r="B128" s="56"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="62"/>
       <c r="H128" s="59"/>
       <c r="I128" s="63"/>
@@ -13698,7 +13728,7 @@
     </row>
     <row r="129" spans="2:68" ht="15" customHeight="1">
       <c r="B129" s="56" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C129" s="56" t="s">
         <v>173</v>
@@ -13707,10 +13737,10 @@
         <v>174</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F129" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G129" s="62"/>
       <c r="H129" s="59"/>
@@ -13789,7 +13819,7 @@
         <v>95</v>
       </c>
       <c r="F130" s="57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G130" s="62"/>
       <c r="H130" s="59"/>
@@ -13856,7 +13886,7 @@
     </row>
     <row r="131" spans="2:68" ht="15" customHeight="1">
       <c r="B131" s="56" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>173</v>
@@ -13868,7 +13898,7 @@
         <v>95</v>
       </c>
       <c r="F131" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G131" s="62"/>
       <c r="H131" s="59"/>
@@ -13947,7 +13977,7 @@
         <v>95</v>
       </c>
       <c r="F132" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G132" s="62"/>
       <c r="H132" s="59"/>
@@ -14026,7 +14056,7 @@
         <v>95</v>
       </c>
       <c r="F133" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G133" s="62"/>
       <c r="H133" s="59"/>
@@ -14105,7 +14135,7 @@
         <v>95</v>
       </c>
       <c r="F134" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G134" s="62"/>
       <c r="H134" s="59"/>
@@ -14172,7 +14202,7 @@
     </row>
     <row r="135" spans="2:68" ht="15" customHeight="1">
       <c r="B135" s="56" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C135" s="56" t="s">
         <v>173</v>
@@ -14184,7 +14214,7 @@
         <v>95</v>
       </c>
       <c r="F135" s="57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G135" s="62"/>
       <c r="H135" s="59"/>
@@ -14263,7 +14293,7 @@
         <v>95</v>
       </c>
       <c r="F136" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G136" s="62"/>
       <c r="H136" s="59"/>
@@ -14342,7 +14372,7 @@
         <v>95</v>
       </c>
       <c r="F137" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G137" s="62"/>
       <c r="H137" s="59"/>
@@ -14421,7 +14451,7 @@
         <v>95</v>
       </c>
       <c r="F138" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G138" s="62"/>
       <c r="H138" s="59"/>
@@ -14488,7 +14518,7 @@
     </row>
     <row r="139" spans="2:68" ht="15" customHeight="1">
       <c r="B139" s="56" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="C139" s="56" t="s">
         <v>173</v>
@@ -14497,10 +14527,10 @@
         <v>174</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F139" s="67" t="s">
-        <v>187</v>
+        <v>95</v>
+      </c>
+      <c r="F139" s="57" t="s">
+        <v>186</v>
       </c>
       <c r="G139" s="62"/>
       <c r="H139" s="59"/>
@@ -14566,11 +14596,21 @@
       <c r="BP139" s="55"/>
     </row>
     <row r="140" spans="2:68" ht="15" customHeight="1">
-      <c r="B140" s="56"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="57"/>
+      <c r="B140" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D140" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" s="67" t="s">
+        <v>187</v>
+      </c>
       <c r="G140" s="62"/>
       <c r="H140" s="59"/>
       <c r="I140" s="63"/>
@@ -14635,21 +14675,11 @@
       <c r="BP140" s="55"/>
     </row>
     <row r="141" spans="2:68" ht="15" customHeight="1">
-      <c r="B141" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D141" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="E141" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="57" t="s">
-        <v>190</v>
-      </c>
+      <c r="B141" s="56"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="62"/>
       <c r="H141" s="59"/>
       <c r="I141" s="63"/>
@@ -14715,7 +14745,7 @@
     </row>
     <row r="142" spans="2:68" ht="15" customHeight="1">
       <c r="B142" s="56" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C142" s="56" t="s">
         <v>188</v>
@@ -14724,10 +14754,10 @@
         <v>189</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F142" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G142" s="62"/>
       <c r="H142" s="59"/>
@@ -14794,7 +14824,7 @@
     </row>
     <row r="143" spans="2:68" ht="15" customHeight="1">
       <c r="B143" s="56" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C143" s="56" t="s">
         <v>188</v>
@@ -14806,7 +14836,7 @@
         <v>95</v>
       </c>
       <c r="F143" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G143" s="62"/>
       <c r="H143" s="59"/>
@@ -14873,7 +14903,7 @@
     </row>
     <row r="144" spans="2:68" ht="15" customHeight="1">
       <c r="B144" s="56" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="C144" s="56" t="s">
         <v>188</v>
@@ -14885,7 +14915,7 @@
         <v>95</v>
       </c>
       <c r="F144" s="57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G144" s="62"/>
       <c r="H144" s="59"/>
@@ -14952,7 +14982,7 @@
     </row>
     <row r="145" spans="2:68" ht="15" customHeight="1">
       <c r="B145" s="56" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C145" s="56" t="s">
         <v>188</v>
@@ -14964,7 +14994,7 @@
         <v>95</v>
       </c>
       <c r="F145" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G145" s="62"/>
       <c r="H145" s="59"/>
@@ -15031,7 +15061,7 @@
     </row>
     <row r="146" spans="2:68" ht="15" customHeight="1">
       <c r="B146" s="56" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C146" s="56" t="s">
         <v>188</v>
@@ -15043,7 +15073,7 @@
         <v>95</v>
       </c>
       <c r="F146" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G146" s="62"/>
       <c r="H146" s="59"/>
@@ -15110,7 +15140,7 @@
     </row>
     <row r="147" spans="2:68" ht="15" customHeight="1">
       <c r="B147" s="56" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C147" s="56" t="s">
         <v>188</v>
@@ -15122,7 +15152,7 @@
         <v>95</v>
       </c>
       <c r="F147" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G147" s="62"/>
       <c r="H147" s="59"/>
@@ -15189,7 +15219,7 @@
     </row>
     <row r="148" spans="2:68" ht="15" customHeight="1">
       <c r="B148" s="56" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C148" s="56" t="s">
         <v>188</v>
@@ -15198,10 +15228,10 @@
         <v>189</v>
       </c>
       <c r="E148" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="67" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="F148" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="G148" s="62"/>
       <c r="H148" s="59"/>
@@ -15267,11 +15297,21 @@
       <c r="BP148" s="55"/>
     </row>
     <row r="149" spans="2:68" ht="15" customHeight="1">
-      <c r="B149" s="56"/>
-      <c r="C149" s="56"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="57"/>
+      <c r="B149" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E149" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="67" t="s">
+        <v>198</v>
+      </c>
       <c r="G149" s="62"/>
       <c r="H149" s="59"/>
       <c r="I149" s="63"/>
@@ -15336,21 +15376,11 @@
       <c r="BP149" s="55"/>
     </row>
     <row r="150" spans="2:68" ht="15" customHeight="1">
-      <c r="B150" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C150" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D150" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E150" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="57" t="s">
-        <v>201</v>
-      </c>
+      <c r="B150" s="56"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="57"/>
       <c r="G150" s="62"/>
       <c r="H150" s="59"/>
       <c r="I150" s="63"/>
@@ -15416,7 +15446,7 @@
     </row>
     <row r="151" spans="2:68" ht="15" customHeight="1">
       <c r="B151" s="56" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C151" s="56" t="s">
         <v>199</v>
@@ -15425,10 +15455,10 @@
         <v>200</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F151" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G151" s="62"/>
       <c r="H151" s="59"/>
@@ -15507,7 +15537,7 @@
         <v>95</v>
       </c>
       <c r="F152" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G152" s="62"/>
       <c r="H152" s="59"/>
@@ -15586,7 +15616,7 @@
         <v>95</v>
       </c>
       <c r="F153" s="57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G153" s="62"/>
       <c r="H153" s="59"/>
@@ -15653,7 +15683,7 @@
     </row>
     <row r="154" spans="2:68" ht="15" customHeight="1">
       <c r="B154" s="56" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C154" s="56" t="s">
         <v>199</v>
@@ -15662,10 +15692,10 @@
         <v>200</v>
       </c>
       <c r="E154" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F154" s="67" t="s">
-        <v>205</v>
+        <v>95</v>
+      </c>
+      <c r="F154" s="57" t="s">
+        <v>204</v>
       </c>
       <c r="G154" s="62"/>
       <c r="H154" s="59"/>
@@ -15731,7 +15761,86 @@
       <c r="BP154" s="55"/>
     </row>
     <row r="155" spans="2:68" ht="15" customHeight="1">
-      <c r="F155" s="70" t="s">
+      <c r="B155" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D155" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E155" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="G155" s="62"/>
+      <c r="H155" s="59"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="61"/>
+      <c r="L155" s="61"/>
+      <c r="M155" s="55"/>
+      <c r="N155" s="55"/>
+      <c r="O155" s="55"/>
+      <c r="P155" s="55"/>
+      <c r="Q155" s="55"/>
+      <c r="R155" s="55"/>
+      <c r="S155" s="55"/>
+      <c r="T155" s="55"/>
+      <c r="U155" s="55"/>
+      <c r="V155" s="55"/>
+      <c r="W155" s="55"/>
+      <c r="X155" s="55"/>
+      <c r="Y155" s="55"/>
+      <c r="Z155" s="55"/>
+      <c r="AA155" s="55"/>
+      <c r="AB155" s="55"/>
+      <c r="AC155" s="55"/>
+      <c r="AD155" s="55"/>
+      <c r="AE155" s="55"/>
+      <c r="AF155" s="55"/>
+      <c r="AG155" s="55"/>
+      <c r="AH155" s="55"/>
+      <c r="AI155" s="55"/>
+      <c r="AJ155" s="55"/>
+      <c r="AK155" s="55"/>
+      <c r="AL155" s="55"/>
+      <c r="AM155" s="55"/>
+      <c r="AN155" s="55"/>
+      <c r="AO155" s="55"/>
+      <c r="AP155" s="55"/>
+      <c r="AQ155" s="55"/>
+      <c r="AR155" s="55"/>
+      <c r="AS155" s="55"/>
+      <c r="AT155" s="55"/>
+      <c r="AU155" s="55"/>
+      <c r="AV155" s="55"/>
+      <c r="AW155" s="55"/>
+      <c r="AX155" s="55"/>
+      <c r="AY155" s="55"/>
+      <c r="AZ155" s="55"/>
+      <c r="BA155" s="55"/>
+      <c r="BB155" s="55"/>
+      <c r="BC155" s="55"/>
+      <c r="BD155" s="55"/>
+      <c r="BE155" s="55"/>
+      <c r="BF155" s="55"/>
+      <c r="BG155" s="55"/>
+      <c r="BH155" s="55"/>
+      <c r="BI155" s="55"/>
+      <c r="BJ155" s="55"/>
+      <c r="BK155" s="55"/>
+      <c r="BL155" s="55"/>
+      <c r="BM155" s="55"/>
+      <c r="BN155" s="55"/>
+      <c r="BO155" s="55"/>
+      <c r="BP155" s="55"/>
+    </row>
+    <row r="156" spans="2:68" ht="15" customHeight="1">
+      <c r="F156" s="70" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15750,7 +15859,7 @@
     <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H154">
+  <conditionalFormatting sqref="H7:H155">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15764,18 +15873,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BU6 M5:BP8 M11:BP154 M10:AB10 AD10:BP10 M9:AC9 AE9:BP9">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="AD9">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ5:BU6 M5:BP8 M9:AC9 AE9:BP9 M10:AB10 AD10:BP10 M11:BP155">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD9">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;AD$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576 B141:XFD1048576 AD10:XFD10 B2:C140 D10:AB10 D1:XFD9 D11:XFD140" xr:uid="{48A682F2-BB20-4610-8ABC-6737C8B46BD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576 B142:XFD1048576 AD10:XFD10 D10:AB10 D1:XFD9 D11:XFD141 B2:C141" xr:uid="{48A682F2-BB20-4610-8ABC-6737C8B46BD5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15794,7 +15903,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H7:H154</xm:sqref>
+          <xm:sqref>H7:H155</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15846,7 +15955,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25">
+    <row r="4" spans="1:3" ht="26.25">
       <c r="A4" s="74">
         <v>2</v>
       </c>
@@ -15868,7 +15977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25">
+    <row r="6" spans="1:3" ht="26.25">
       <c r="A6" s="74">
         <v>4</v>
       </c>
@@ -15879,7 +15988,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23.25">
+    <row r="7" spans="1:3" ht="26.25">
       <c r="A7" s="79">
         <v>5</v>
       </c>
@@ -15920,7 +16029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E87523E-F206-44D1-9C9C-3EC2941C15AD}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15943,7 +16054,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="85">
         <v>1</v>
       </c>
@@ -15957,7 +16068,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="101.25">
+    <row r="3" spans="1:4" ht="105">
       <c r="A3" s="88">
         <v>2</v>
       </c>
@@ -15971,7 +16082,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.25">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="88">
         <v>3</v>
       </c>
@@ -15981,8 +16092,8 @@
       <c r="C4" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="90" t="s">
-        <v>230</v>
+      <c r="D4" s="128" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15993,13 +16104,13 @@
         <v>45809</v>
       </c>
       <c r="C5" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="72.75">
+    </row>
+    <row r="6" spans="1:4" ht="75">
       <c r="A6" s="88">
         <v>5</v>
       </c>
@@ -16007,13 +16118,13 @@
         <v>45839</v>
       </c>
       <c r="C6" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="90" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="88">
         <v>6</v>
       </c>
@@ -16024,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16035,10 +16146,10 @@
         <v>45901</v>
       </c>
       <c r="C8" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="97" t="s">
         <v>236</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -16050,7 +16161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D00EE6B-3510-41EA-93A8-4CA6125E5E09}">
   <dimension ref="C15:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -16061,18 +16172,18 @@
   <sheetData>
     <row r="15" spans="14:19" ht="17.25">
       <c r="N15" s="99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S15" s="99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:16">
       <c r="C25" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="100" t="s">
         <v>239</v>
-      </c>
-      <c r="P25" s="100" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -16082,6 +16193,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <COESecondarySA xmlns="816e9d17-1467-4f10-9f64-6fa3250acdda">
@@ -16105,15 +16225,6 @@
     <TaxCatchAll xmlns="981aa589-6265-4267-a044-f7b742ef8bfb" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16366,13 +16477,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3003BADA-8F08-4131-B5CF-B3911A07B60C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D603A457-D9C2-485F-8E0F-3FA48C9C9FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D603A457-D9C2-485F-8E0F-3FA48C9C9FE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3003BADA-8F08-4131-B5CF-B3911A07B60C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="816e9d17-1467-4f10-9f64-6fa3250acdda"/>
+    <ds:schemaRef ds:uri="981aa589-6265-4267-a044-f7b742ef8bfb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF5EAA9-CD97-491C-9CE1-8B9C3B1DD2B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF5EAA9-CD97-491C-9CE1-8B9C3B1DD2B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="816e9d17-1467-4f10-9f64-6fa3250acdda"/>
+    <ds:schemaRef ds:uri="981aa589-6265-4267-a044-f7b742ef8bfb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>